--- a/SR_Resource_type.xlsx
+++ b/SR_Resource_type.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4640" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4640" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Storage account" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="VM" sheetId="3" r:id="rId3"/>
     <sheet name="SQL Database" sheetId="5" r:id="rId4"/>
     <sheet name="Key vault" sheetId="7" r:id="rId5"/>
-    <sheet name="SQL Managed Instance" sheetId="6" r:id="rId6"/>
+    <sheet name="Sql on VM" sheetId="8" r:id="rId6"/>
+    <sheet name="Log analytics workspace" sheetId="9" r:id="rId7"/>
+    <sheet name="SQL Managed Instance" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="903">
   <si>
     <t>Risk Description</t>
   </si>
@@ -1511,6 +1513,1317 @@
   </si>
   <si>
     <t>Apply CanNotDelete lock to production Key Vaults</t>
+  </si>
+  <si>
+    <t>SQL Server on Azure VM Security Remediations</t>
+  </si>
+  <si>
+    <t>azurerm_mssql_virtual_machine</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>SQL VM Resource Provider Not Registered</t>
+  </si>
+  <si>
+    <t>Cannot manage SQL Server configurations through Azure</t>
+  </si>
+  <si>
+    <t>Register VM with SQL VM resource provider for management</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>SQL Server License Not Configured</t>
+  </si>
+  <si>
+    <t>Incorrect licensing model causing compliance issues</t>
+  </si>
+  <si>
+    <t>sql_license_type</t>
+  </si>
+  <si>
+    <t>Set to "PAYG" or "AHUB" (Azure Hybrid Benefit) based on licensing</t>
+  </si>
+  <si>
+    <t>SQL Connectivity Type Not Secured</t>
+  </si>
+  <si>
+    <t>sql_connectivity_update.connectivity_type</t>
+  </si>
+  <si>
+    <t>Set to "PRIVATE" for internal-only access, avoid "PUBLIC"</t>
+  </si>
+  <si>
+    <t>SQL Port Not Changed from Default</t>
+  </si>
+  <si>
+    <t>Using default port 1433 makes server vulnerable to attacks</t>
+  </si>
+  <si>
+    <t>sql_connectivity_update.port</t>
+  </si>
+  <si>
+    <t>Change from default 1433 to custom port (e.g., 14333)</t>
+  </si>
+  <si>
+    <t>SQL Authentication Enabled</t>
+  </si>
+  <si>
+    <t>SQL authentication less secure than Windows authentication</t>
+  </si>
+  <si>
+    <t>SQL Server configuration</t>
+  </si>
+  <si>
+    <t>Disable SQL authentication, use Windows/Azure AD authentication only</t>
+  </si>
+  <si>
+    <t>Windows Authentication Not Primary</t>
+  </si>
+  <si>
+    <t>Not using most secure authentication method</t>
+  </si>
+  <si>
+    <t>Set Windows authentication mode or mixed mode with strong policies</t>
+  </si>
+  <si>
+    <t>Cannot use Azure AD identities for SQL access</t>
+  </si>
+  <si>
+    <t>Configure via SQL Server</t>
+  </si>
+  <si>
+    <t>Enable Azure AD authentication for centralized identity management</t>
+  </si>
+  <si>
+    <t>'sa' Account Enabled</t>
+  </si>
+  <si>
+    <t>Built-in admin account creates security risk</t>
+  </si>
+  <si>
+    <t>Disable 'sa' account, use named admin accounts with Windows auth</t>
+  </si>
+  <si>
+    <t>Data at rest not encrypted in database files</t>
+  </si>
+  <si>
+    <t>SQL Server T-SQL</t>
+  </si>
+  <si>
+    <t>Enable TDE on all user databases for data-at-rest encryption</t>
+  </si>
+  <si>
+    <t>Backup Encryption Not Enabled</t>
+  </si>
+  <si>
+    <t>Database backups stored in clear text</t>
+  </si>
+  <si>
+    <t>SQL Server backup configuration</t>
+  </si>
+  <si>
+    <t>Enable backup encryption using certificate or asymmetric key</t>
+  </si>
+  <si>
+    <t>TLS/SSL Not Enforced</t>
+  </si>
+  <si>
+    <t>Data in transit not encrypted</t>
+  </si>
+  <si>
+    <t>SQL Server Network Configuration</t>
+  </si>
+  <si>
+    <t>Force encryption, require TLS 1.2 or higher</t>
+  </si>
+  <si>
+    <t>Certificate Not Configured</t>
+  </si>
+  <si>
+    <t>Using self-signed certificate for encryption</t>
+  </si>
+  <si>
+    <t>Install and configure trusted SSL certificate</t>
+  </si>
+  <si>
+    <t>Automated Backup Not Configured</t>
+  </si>
+  <si>
+    <t>No automated backup solution in place</t>
+  </si>
+  <si>
+    <t>auto_backup</t>
+  </si>
+  <si>
+    <t>Configure automated backup to storage account with retention policy</t>
+  </si>
+  <si>
+    <t>Backup Retention Not Adequate</t>
+  </si>
+  <si>
+    <t>Insufficient backup retention for compliance</t>
+  </si>
+  <si>
+    <t>auto_backup.retention_days</t>
+  </si>
+  <si>
+    <t>Set retention period (7-90 days minimum, based on compliance needs)</t>
+  </si>
+  <si>
+    <t>Backup Encryption Key Not Managed</t>
+  </si>
+  <si>
+    <t>Backup encryption keys not properly secured</t>
+  </si>
+  <si>
+    <t>auto_backup.encryption</t>
+  </si>
+  <si>
+    <t>Enable encryption and store encryption password in Key Vault</t>
+  </si>
+  <si>
+    <t>Always On Availability Groups Not Configured</t>
+  </si>
+  <si>
+    <t>No high availability or disaster recovery solution</t>
+  </si>
+  <si>
+    <t>SQL Server Always On</t>
+  </si>
+  <si>
+    <t>Configure Always On Availability Groups for HA/DR</t>
+  </si>
+  <si>
+    <t>Multi-Region DR Not Configured</t>
+  </si>
+  <si>
+    <t>Azure Site Recovery or Always On</t>
+  </si>
+  <si>
+    <t>Configure cross-region replica for business continuity</t>
+  </si>
+  <si>
+    <t>Failover Testing Not Performed</t>
+  </si>
+  <si>
+    <t>DR solution not validated</t>
+  </si>
+  <si>
+    <t>Process/procedure</t>
+  </si>
+  <si>
+    <t>Perform quarterly failover tests</t>
+  </si>
+  <si>
+    <t>Patch Management</t>
+  </si>
+  <si>
+    <t>SQL Server Not Patched</t>
+  </si>
+  <si>
+    <t>Running outdated SQL Server version with vulnerabilities</t>
+  </si>
+  <si>
+    <t>auto_patching</t>
+  </si>
+  <si>
+    <t>Enable automated patching for SQL Server and Windows</t>
+  </si>
+  <si>
+    <t>Patch Schedule Not Configured</t>
+  </si>
+  <si>
+    <t>Patches applied during business hours</t>
+  </si>
+  <si>
+    <t>auto_patching.day_of_week, maintenance_window_duration</t>
+  </si>
+  <si>
+    <t>Configure maintenance window for off-hours patching</t>
+  </si>
+  <si>
+    <t>SQL Assessment Not Enabled</t>
+  </si>
+  <si>
+    <t>No visibility into SQL Server best practice violations</t>
+  </si>
+  <si>
+    <t>r_services_enabled = true for assessment</t>
+  </si>
+  <si>
+    <t>Enable SQL Assessment for configuration recommendations</t>
+  </si>
+  <si>
+    <t>Performance Monitoring Not Configured</t>
+  </si>
+  <si>
+    <t>No monitoring of SQL Server performance metrics</t>
+  </si>
+  <si>
+    <t>Configure monitoring for CPU, memory, I/O, query performance</t>
+  </si>
+  <si>
+    <t>SQL Server Auditing Not Enabled</t>
+  </si>
+  <si>
+    <t>SQL Server Audit</t>
+  </si>
+  <si>
+    <t>Enable SQL Server Audit to capture security-relevant events</t>
+  </si>
+  <si>
+    <t>Database-Level Auditing Not Enabled</t>
+  </si>
+  <si>
+    <t>Individual databases lack audit configuration</t>
+  </si>
+  <si>
+    <t>SQL Database Audit Specification</t>
+  </si>
+  <si>
+    <t>Configure audit specifications for each user database</t>
+  </si>
+  <si>
+    <t>Audit Logs Not Centralized</t>
+  </si>
+  <si>
+    <t>Audit logs stored locally, risk of tampering</t>
+  </si>
+  <si>
+    <t>SQL Audit with Azure Storage target</t>
+  </si>
+  <si>
+    <t>Send audit logs to Azure Storage or Log Analytics</t>
+  </si>
+  <si>
+    <t>SQL Server Firewall Not Configured</t>
+  </si>
+  <si>
+    <t>No application-level firewall rules</t>
+  </si>
+  <si>
+    <t>Configure SQL Server firewall rules to restrict connections</t>
+  </si>
+  <si>
+    <t>Least Privilege Not Implemented</t>
+  </si>
+  <si>
+    <t>Users have excessive permissions</t>
+  </si>
+  <si>
+    <t>SQL Server permissions</t>
+  </si>
+  <si>
+    <t>Implement role-based access with minimum required permissions</t>
+  </si>
+  <si>
+    <t>'xp_cmdshell' Enabled</t>
+  </si>
+  <si>
+    <t>Allows OS command execution, major security risk</t>
+  </si>
+  <si>
+    <t>Disable 'xp_cmdshell' extended stored procedure</t>
+  </si>
+  <si>
+    <t>Remote Admin Connections Enabled</t>
+  </si>
+  <si>
+    <t>DAC accessible remotely increases attack surface</t>
+  </si>
+  <si>
+    <t>Disable remote DAC, allow only local connections</t>
+  </si>
+  <si>
+    <t>Cross DB Ownership Chaining Enabled</t>
+  </si>
+  <si>
+    <t>Allows privilege escalation across databases</t>
+  </si>
+  <si>
+    <t>Disable cross database ownership chaining</t>
+  </si>
+  <si>
+    <t>SQL Server DDM</t>
+  </si>
+  <si>
+    <t>Configure dynamic data masking for PII/sensitive columns</t>
+  </si>
+  <si>
+    <t>Column-Level Encryption Not Used</t>
+  </si>
+  <si>
+    <t>Sensitive data stored in plain text</t>
+  </si>
+  <si>
+    <t>SQL Server Always Encrypted</t>
+  </si>
+  <si>
+    <t>Use Always Encrypted for highly sensitive data (SSN, credit cards)</t>
+  </si>
+  <si>
+    <t>Row-Level Security Not Implemented</t>
+  </si>
+  <si>
+    <t>Users can access data beyond their authorization</t>
+  </si>
+  <si>
+    <t>SQL Server RLS</t>
+  </si>
+  <si>
+    <t>Implement row-level security for multi-tenant scenarios</t>
+  </si>
+  <si>
+    <t>VM Network Security Group Not Configured</t>
+  </si>
+  <si>
+    <t>No network-level access control to VM</t>
+  </si>
+  <si>
+    <t>Configure NSG allowing only SQL port from authorized sources</t>
+  </si>
+  <si>
+    <t>Public IP Attached to SQL VM</t>
+  </si>
+  <si>
+    <t>SQL Server VM directly exposed to internet</t>
+  </si>
+  <si>
+    <t>azurerm_public_ip</t>
+  </si>
+  <si>
+    <t>Remove public IP, use Azure Bastion or VPN for access</t>
+  </si>
+  <si>
+    <t>SQL Server Browser Service Enabled</t>
+  </si>
+  <si>
+    <t>Service can reveal SQL Server instances to attackers</t>
+  </si>
+  <si>
+    <t>Windows Service configuration</t>
+  </si>
+  <si>
+    <t>Disable SQL Server Browser service if not needed</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>TempDB Not Optimized</t>
+  </si>
+  <si>
+    <t>TempDB on OS disk causing performance and security issues</t>
+  </si>
+  <si>
+    <t>SQL Server configuration + VM storage</t>
+  </si>
+  <si>
+    <t>Move TempDB to separate disk (preferably local SSD)</t>
+  </si>
+  <si>
+    <t>Data Files Not Separated</t>
+  </si>
+  <si>
+    <t>Data and log files on same disk</t>
+  </si>
+  <si>
+    <t>azurerm_managed_disk</t>
+  </si>
+  <si>
+    <t>Separate data files, log files, and TempDB on different disks</t>
+  </si>
+  <si>
+    <t>Storage Not Using Premium SSD</t>
+  </si>
+  <si>
+    <t>Lower performance and reliability for production</t>
+  </si>
+  <si>
+    <t>storage_configuration.disk_type</t>
+  </si>
+  <si>
+    <t>Use Premium SSD or Ultra Disk for data and log files</t>
+  </si>
+  <si>
+    <t>Instant File Initialization Not Enabled</t>
+  </si>
+  <si>
+    <t>Slower database operations and recovery</t>
+  </si>
+  <si>
+    <t>SQL Server service account</t>
+  </si>
+  <si>
+    <t>Grant "Perform Volume Maintenance Tasks" to SQL service account</t>
+  </si>
+  <si>
+    <t>Storage Spaces Not Configured</t>
+  </si>
+  <si>
+    <t>Not using storage pooling for better performance</t>
+  </si>
+  <si>
+    <t>storage_configuration</t>
+  </si>
+  <si>
+    <t>Configure storage spaces for striping multiple disks</t>
+  </si>
+  <si>
+    <t>Max Server Memory Not Configured</t>
+  </si>
+  <si>
+    <t>SQL Server can consume all VM memory</t>
+  </si>
+  <si>
+    <t>SQL Server sp_configure</t>
+  </si>
+  <si>
+    <t>Set max server memory to leave memory for OS (typically VM memory - 4GB)</t>
+  </si>
+  <si>
+    <t>MAXDOP Not Configured</t>
+  </si>
+  <si>
+    <t>Suboptimal query parallelism configuration</t>
+  </si>
+  <si>
+    <t>Configure MAXDOP based on core count and workload</t>
+  </si>
+  <si>
+    <t>Cost Threshold for Parallelism Not Set</t>
+  </si>
+  <si>
+    <t>Too many parallel plans for small queries</t>
+  </si>
+  <si>
+    <t>Set cost threshold for parallelism (typically 50 for OLTP)</t>
+  </si>
+  <si>
+    <t>Trace Flags Not Set</t>
+  </si>
+  <si>
+    <t>Missing beneficial SQL Server optimizations</t>
+  </si>
+  <si>
+    <t>SQL Server startup parameters</t>
+  </si>
+  <si>
+    <t>Configure recommended trace flags (e.g., 3226 to suppress backup logs)</t>
+  </si>
+  <si>
+    <t>VM Configuration</t>
+  </si>
+  <si>
+    <t>VM Size Not Optimized for SQL</t>
+  </si>
+  <si>
+    <t>Inadequate CPU, memory, or I/O for SQL workload</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Use memory-optimized VM sizes (E-series, M-series) for SQL Server</t>
+  </si>
+  <si>
+    <t>Accelerated Networking Not Enabled</t>
+  </si>
+  <si>
+    <t>Higher latency and lower throughput</t>
+  </si>
+  <si>
+    <t>enable_accelerated_networking</t>
+  </si>
+  <si>
+    <t>Enable accelerated networking for better performance</t>
+  </si>
+  <si>
+    <t>Encryption Keys Not in Key Vault</t>
+  </si>
+  <si>
+    <t>TDE and backup encryption keys not centrally managed</t>
+  </si>
+  <si>
+    <t>azurerm_key_vault integration</t>
+  </si>
+  <si>
+    <t>Store TDE protector and backup encryption keys in Key Vault</t>
+  </si>
+  <si>
+    <t>SQL Server Not Registered with Purview</t>
+  </si>
+  <si>
+    <t>No data governance and cataloging</t>
+  </si>
+  <si>
+    <t>Microsoft Purview</t>
+  </si>
+  <si>
+    <t>Register SQL Server with Microsoft Purview for data governance</t>
+  </si>
+  <si>
+    <t>Extended Events Not Configured</t>
+  </si>
+  <si>
+    <t>Missing detailed troubleshooting and security monitoring</t>
+  </si>
+  <si>
+    <t>SQL Server Extended Events</t>
+  </si>
+  <si>
+    <t>Configure Extended Events sessions for security and performance monitoring</t>
+  </si>
+  <si>
+    <t>Query Store Not Enabled</t>
+  </si>
+  <si>
+    <t>No query performance history and plan forcing capability</t>
+  </si>
+  <si>
+    <t>ALTER DATABASE SET QUERY_STORE</t>
+  </si>
+  <si>
+    <t>Enable Query Store on all user databases</t>
+  </si>
+  <si>
+    <t>Contained Databases Disabled</t>
+  </si>
+  <si>
+    <t>Cannot use database-level authentication</t>
+  </si>
+  <si>
+    <t>Enable contained database authentication if using contained users</t>
+  </si>
+  <si>
+    <t>SQL Server Agent Not Secured</t>
+  </si>
+  <si>
+    <t>Agent jobs can run with excessive privileges</t>
+  </si>
+  <si>
+    <t>SQL Server Agent configuration</t>
+  </si>
+  <si>
+    <t>Use SQL Agent proxy accounts with least privilege</t>
+  </si>
+  <si>
+    <t>Linked Servers Not Secured</t>
+  </si>
+  <si>
+    <t>Linked servers using weak authentication</t>
+  </si>
+  <si>
+    <t>SQL Server linked server config</t>
+  </si>
+  <si>
+    <t>Use Windows authentication for linked servers, avoid SQL auth</t>
+  </si>
+  <si>
+    <t>VM-Level Backup Not Configured</t>
+  </si>
+  <si>
+    <t>No VM-level backup in addition to SQL backups</t>
+  </si>
+  <si>
+    <t>azurerm_backup_protected_vm</t>
+  </si>
+  <si>
+    <t>Configure Azure Backup for VM-level protection</t>
+  </si>
+  <si>
+    <t>SQL Server Service Account Privileges</t>
+  </si>
+  <si>
+    <t>SQL service running with excessive Windows privileges</t>
+  </si>
+  <si>
+    <t>Windows service configuration</t>
+  </si>
+  <si>
+    <t>Use least-privilege service account (not Local System)</t>
+  </si>
+  <si>
+    <t>SQL Server Agent Alerts Not Configured</t>
+  </si>
+  <si>
+    <t>No alerting for critical SQL Server errors</t>
+  </si>
+  <si>
+    <t>SQL Server Agent Alerts</t>
+  </si>
+  <si>
+    <t>Configure alerts for severity 19+ errors, disk space, failed jobs</t>
+  </si>
+  <si>
+    <t>Database Mail Not Secured</t>
+  </si>
+  <si>
+    <t>Database Mail can be abused for spam or data exfiltration</t>
+  </si>
+  <si>
+    <t>SQL Server Database Mail</t>
+  </si>
+  <si>
+    <t>Restrict Database Mail usage, configure mail profile security</t>
+  </si>
+  <si>
+    <t>Deprecated Features Still in Use</t>
+  </si>
+  <si>
+    <t>Using features that will be removed in future versions</t>
+  </si>
+  <si>
+    <t>SQL Server feature usage</t>
+  </si>
+  <si>
+    <t>Identify and replace deprecated features (sys.dm_db_stats_properties)</t>
+  </si>
+  <si>
+    <t>No advanced threat protection for SQL Server</t>
+  </si>
+  <si>
+    <t>resource_type = "SqlServerVirtualMachines"</t>
+  </si>
+  <si>
+    <t>Enable Microsoft Defender for SQL Server on VMs</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_workspace</t>
+  </si>
+  <si>
+    <t>Log Analytics Not Integrated</t>
+  </si>
+  <si>
+    <t>SQL logs not centralized for analysis</t>
+  </si>
+  <si>
+    <t>Create workspace and configure SQL VM to send logs</t>
+  </si>
+  <si>
+    <t>azurerm_virtual_machine_extension</t>
+  </si>
+  <si>
+    <t>SQL IaaS Extension Not Installed</t>
+  </si>
+  <si>
+    <t>Cannot use Azure portal SQL management features</t>
+  </si>
+  <si>
+    <t>SQL IaaS Agent Extension</t>
+  </si>
+  <si>
+    <t>Automatically installed when registering with SQL VM RP</t>
+  </si>
+  <si>
+    <t>No alerts for SQL performance or security issues</t>
+  </si>
+  <si>
+    <t>Configure alerts for CPU, memory, disk space, failed logins</t>
+  </si>
+  <si>
+    <t>VM Security</t>
+  </si>
+  <si>
+    <t>VM Not Using Managed Disks</t>
+  </si>
+  <si>
+    <t>Using unmanaged disks limits security features</t>
+  </si>
+  <si>
+    <t>managed_disk_id</t>
+  </si>
+  <si>
+    <t>Convert to managed disks for better security and management</t>
+  </si>
+  <si>
+    <t>VM disks not encrypted at rest</t>
+  </si>
+  <si>
+    <t>Enable Azure Disk Encryption for all disks</t>
+  </si>
+  <si>
+    <t>Resource Tags Not Applied</t>
+  </si>
+  <si>
+    <t>Cannot track SQL Server inventory and costs</t>
+  </si>
+  <si>
+    <t>Apply tags: Environment, Application, Owner, CostCenter, SQLVersion</t>
+  </si>
+  <si>
+    <t>Production SQL VM can be accidentally deleted</t>
+  </si>
+  <si>
+    <t>Apply CanNotDelete lock to production SQL VMs</t>
+  </si>
+  <si>
+    <t>Azure Log Analytics Workspace Security Remediations</t>
+  </si>
+  <si>
+    <t>Logs deleted prematurely or retained too long increasing costs</t>
+  </si>
+  <si>
+    <t>Set retention period (30-730 days) based on compliance requirements</t>
+  </si>
+  <si>
+    <t>Default Retention Used</t>
+  </si>
+  <si>
+    <t>Using default 30 days may not meet compliance needs</t>
+  </si>
+  <si>
+    <t>Configure appropriate retention (90-365 days for most compliance)</t>
+  </si>
+  <si>
+    <t>Cost Management</t>
+  </si>
+  <si>
+    <t>Uncontrolled data ingestion causing unexpected costs</t>
+  </si>
+  <si>
+    <t>daily_quota_gb</t>
+  </si>
+  <si>
+    <t>Set daily ingestion limit to control costs (e.g., 10-100 GB/day)</t>
+  </si>
+  <si>
+    <t>Data Cap Alert Not Configured</t>
+  </si>
+  <si>
+    <t>No notification when approaching data limit</t>
+  </si>
+  <si>
+    <t>Configure alerts at 80% and 90% of daily quota</t>
+  </si>
+  <si>
+    <t>Workspace accessible from public internet</t>
+  </si>
+  <si>
+    <t>public_network_access_for_ingestion</t>
+  </si>
+  <si>
+    <t>Set to "Disabled" for enhanced security</t>
+  </si>
+  <si>
+    <t>Query Public Access Enabled</t>
+  </si>
+  <si>
+    <t>Query endpoint accessible from internet</t>
+  </si>
+  <si>
+    <t>public_network_access_for_query</t>
+  </si>
+  <si>
+    <t>Set to "Disabled" to restrict query access</t>
+  </si>
+  <si>
+    <t>No private connectivity to Log Analytics</t>
+  </si>
+  <si>
+    <t>Configure Azure Private Link for secure access</t>
+  </si>
+  <si>
+    <t>azurerm_private_link_scope</t>
+  </si>
+  <si>
+    <t>Private Link Scope Not Created</t>
+  </si>
+  <si>
+    <t>Cannot manage multiple resources under private link</t>
+  </si>
+  <si>
+    <t>azurerm_monitor_private_link_scope</t>
+  </si>
+  <si>
+    <t>Create Private Link Scope for centralized management</t>
+  </si>
+  <si>
+    <t>RBAC Not Properly Configured</t>
+  </si>
+  <si>
+    <t>Users have excessive permissions to view/modify logs</t>
+  </si>
+  <si>
+    <t>Assign appropriate RBAC roles (Reader, Contributor, specific data roles)</t>
+  </si>
+  <si>
+    <t>Resource-Level Permissions Not Set</t>
+  </si>
+  <si>
+    <t>Cannot control access at table or resource level</t>
+  </si>
+  <si>
+    <t>access_mode</t>
+  </si>
+  <si>
+    <t>Set to "resource" or "workspace" based on access requirements</t>
+  </si>
+  <si>
+    <t>Table-Level RBAC Not Implemented</t>
+  </si>
+  <si>
+    <t>All users can access all tables in workspace</t>
+  </si>
+  <si>
+    <t>Table-level access via Azure RBAC</t>
+  </si>
+  <si>
+    <t>Configure table-level access control for sensitive data</t>
+  </si>
+  <si>
+    <t>Customer-Managed Key Not Used</t>
+  </si>
+  <si>
+    <t>Data encrypted with Microsoft-managed keys only</t>
+  </si>
+  <si>
+    <t>cmk_for_query_forced</t>
+  </si>
+  <si>
+    <t>Set to true to require customer-managed keys for queries</t>
+  </si>
+  <si>
+    <t>Dedicated Cluster Not Used</t>
+  </si>
+  <si>
+    <t>Cannot use customer-managed keys for encryption</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_cluster</t>
+  </si>
+  <si>
+    <t>Create dedicated cluster for CMK support</t>
+  </si>
+  <si>
+    <t>CMK Not Configured on Cluster</t>
+  </si>
+  <si>
+    <t>Cluster not using customer-managed encryption keys</t>
+  </si>
+  <si>
+    <t>identity and key_vault_key_id</t>
+  </si>
+  <si>
+    <t>Configure system-assigned identity and Key Vault key</t>
+  </si>
+  <si>
+    <t>Workspace Not Locked</t>
+  </si>
+  <si>
+    <t>Workspace can be accidentally deleted</t>
+  </si>
+  <si>
+    <t>Apply CanNotDelete lock to production workspaces</t>
+  </si>
+  <si>
+    <t>Workspace Diagnostics Not Enabled</t>
+  </si>
+  <si>
+    <t>No audit trail of workspace operations</t>
+  </si>
+  <si>
+    <t>Enable diagnostic logs for the workspace itself</t>
+  </si>
+  <si>
+    <t>Usage and Costs Not Monitored</t>
+  </si>
+  <si>
+    <t>No visibility into data ingestion and query costs</t>
+  </si>
+  <si>
+    <t>Usage and EstimatedCost tables</t>
+  </si>
+  <si>
+    <t>Monitor Usage table and configure cost alerts</t>
+  </si>
+  <si>
+    <t>Action Groups Not Configured</t>
+  </si>
+  <si>
+    <t>No notification mechanism for alerts</t>
+  </si>
+  <si>
+    <t>Create action groups for different severity levels</t>
+  </si>
+  <si>
+    <t>azurerm_monitor_scheduled_query_rules_alert_v2</t>
+  </si>
+  <si>
+    <t>Security Alerts Not Configured</t>
+  </si>
+  <si>
+    <t>No alerts for security events in logs</t>
+  </si>
+  <si>
+    <t>Configure log query alerts for security events</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Being Collected</t>
+  </si>
+  <si>
+    <t>Collecting too much data increases costs and noise</t>
+  </si>
+  <si>
+    <t>Data Collection Rules</t>
+  </si>
+  <si>
+    <t>Review and optimize data collection to essential logs only</t>
+  </si>
+  <si>
+    <t>azurerm_monitor_data_collection_rule</t>
+  </si>
+  <si>
+    <t>Data Collection Rules Not Optimized</t>
+  </si>
+  <si>
+    <t>Inefficient data collection increasing costs</t>
+  </si>
+  <si>
+    <t>Configure DCRs to filter and transform data at source</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_solution</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>Required Solutions Not Deployed</t>
+  </si>
+  <si>
+    <t>Missing important monitoring capabilities</t>
+  </si>
+  <si>
+    <t>Deploy solutions: SecurityInsights, Updates, ChangeTracking</t>
+  </si>
+  <si>
+    <t>Microsoft Sentinel Not Enabled</t>
+  </si>
+  <si>
+    <t>No SIEM/SOAR capabilities for security monitoring</t>
+  </si>
+  <si>
+    <t>solution_name = "SecurityInsights"</t>
+  </si>
+  <si>
+    <t>Enable Microsoft Sentinel for security operations</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_linked_storage_account</t>
+  </si>
+  <si>
+    <t>Linked Storage Account Not Configured</t>
+  </si>
+  <si>
+    <t>Cannot export logs to storage for long-term retention</t>
+  </si>
+  <si>
+    <t>Link storage account for custom log ingestion and export</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_saved_search</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Saved Searches Not Created</t>
+  </si>
+  <si>
+    <t>No predefined queries for common investigations</t>
+  </si>
+  <si>
+    <t>Create saved searches for frequent security and ops queries</t>
+  </si>
+  <si>
+    <t>Workspace in Wrong Region</t>
+  </si>
+  <si>
+    <t>Higher latency and potential data residency issues</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Deploy workspace in same region as monitored resources</t>
+  </si>
+  <si>
+    <t>Apply tags: Environment, Owner, CostCenter, DataClassification</t>
+  </si>
+  <si>
+    <t>Workspace Not Meeting Compliance</t>
+  </si>
+  <si>
+    <t>No evidence of compliance configuration</t>
+  </si>
+  <si>
+    <t>Configure based on requirements</t>
+  </si>
+  <si>
+    <t>Document compliance settings (retention, encryption, access)</t>
+  </si>
+  <si>
+    <t>Data Sovereignty</t>
+  </si>
+  <si>
+    <t>Data Residency Not Controlled</t>
+  </si>
+  <si>
+    <t>Data may be stored outside required geography</t>
+  </si>
+  <si>
+    <t>Ensure workspace location meets data residency requirements</t>
+  </si>
+  <si>
+    <t>Managed Identity Not Configured</t>
+  </si>
+  <si>
+    <t>Services using keys instead of managed identity</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>Enable system-assigned managed identity for workspace</t>
+  </si>
+  <si>
+    <t>Log Sampling Not Configured</t>
+  </si>
+  <si>
+    <t>Collecting 100% of logs when sampling would suffice</t>
+  </si>
+  <si>
+    <t>Configure in data sources</t>
+  </si>
+  <si>
+    <t>Enable sampling for high-volume, low-value logs</t>
+  </si>
+  <si>
+    <t>Data Archiving Not Utilized</t>
+  </si>
+  <si>
+    <t>Old logs in hot tier increasing costs</t>
+  </si>
+  <si>
+    <t>Archive tier (Interactive Retention)</t>
+  </si>
+  <si>
+    <t>Use archive tier for logs older than 90 days</t>
+  </si>
+  <si>
+    <t>Basic Logs Not Used</t>
+  </si>
+  <si>
+    <t>Using Analytics logs for high-volume, low-query data</t>
+  </si>
+  <si>
+    <t>Table plan = "Basic"</t>
+  </si>
+  <si>
+    <t>Configure Basic logs for verbose, infrequently queried data</t>
+  </si>
+  <si>
+    <t>Commitment Tier Not Used</t>
+  </si>
+  <si>
+    <t>Paying per-GB pricing instead of commitment tier</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>Use commitment tier (100GB, 200GB, etc.) if ingesting &gt;100GB/day</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Workspace Not Integrated with Defender</t>
+  </si>
+  <si>
+    <t>Missing security insights from Microsoft Defender</t>
+  </si>
+  <si>
+    <t>Configure Defender integration</t>
+  </si>
+  <si>
+    <t>Connect workspace to Microsoft Defender for Cloud</t>
+  </si>
+  <si>
+    <t>Azure AD Logs Not Ingested</t>
+  </si>
+  <si>
+    <t>Missing identity and access audit logs</t>
+  </si>
+  <si>
+    <t>Azure AD Diagnostic Settings</t>
+  </si>
+  <si>
+    <t>Configure Azure AD to send logs to workspace</t>
+  </si>
+  <si>
+    <t>Activity Logs Not Ingested</t>
+  </si>
+  <si>
+    <t>Missing Azure control plane audit logs</t>
+  </si>
+  <si>
+    <t>Azure Activity Log Diagnostic Settings</t>
+  </si>
+  <si>
+    <t>Configure subscription activity logs to workspace</t>
+  </si>
+  <si>
+    <t>Query Performance</t>
+  </si>
+  <si>
+    <t>Query Optimization Not Implemented</t>
+  </si>
+  <si>
+    <t>Slow queries impacting user experience</t>
+  </si>
+  <si>
+    <t>KQL query optimization</t>
+  </si>
+  <si>
+    <t>Optimize queries using summarize, project, and time filters</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t>Data Transformation Not Used</t>
+  </si>
+  <si>
+    <t>Raw data ingested without cleanup or enrichment</t>
+  </si>
+  <si>
+    <t>Data Collection Rules transformation</t>
+  </si>
+  <si>
+    <t>Use DCR transformations to clean and enrich data</t>
+  </si>
+  <si>
+    <t>Workspace Keys Exposed</t>
+  </si>
+  <si>
+    <t>Workspace ID and keys shared insecurely</t>
+  </si>
+  <si>
+    <t>Use managed identity instead</t>
+  </si>
+  <si>
+    <t>Avoid using workspace keys, use Azure AD authentication</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Automated Response Not Configured</t>
+  </si>
+  <si>
+    <t>Security events require manual response</t>
+  </si>
+  <si>
+    <t>Logic Apps or Azure Functions</t>
+  </si>
+  <si>
+    <t>Configure automated playbooks for common incidents</t>
+  </si>
+  <si>
+    <t>Data Export Not Configured</t>
+  </si>
+  <si>
+    <t>Cannot export data for external analysis or compliance</t>
+  </si>
+  <si>
+    <t>azurerm_log_analytics_data_export_rule</t>
+  </si>
+  <si>
+    <t>Configure continuous export to Storage or Event Hub</t>
+  </si>
+  <si>
+    <t>Heartbeat Monitoring Not Set Up</t>
+  </si>
+  <si>
+    <t>No monitoring of agent connectivity</t>
+  </si>
+  <si>
+    <t>Heartbeat table queries</t>
+  </si>
+  <si>
+    <t>Monitor Heartbeat table for disconnected agents</t>
+  </si>
+  <si>
+    <t>Capacity Planning</t>
+  </si>
+  <si>
+    <t>Capacity Reservation Not Used</t>
+  </si>
+  <si>
+    <t>Not optimizing costs for predictable ingestion</t>
+  </si>
+  <si>
+    <t>reservation_capacity_in_gb_per_day</t>
+  </si>
+  <si>
+    <t>Use capacity reservation for 100+ GB/day ingestion</t>
+  </si>
+  <si>
+    <t>Workbooks Not Created</t>
+  </si>
+  <si>
+    <t>No visual dashboards for security and operations</t>
+  </si>
+  <si>
+    <t>Azure Monitor Workbooks</t>
+  </si>
+  <si>
+    <t>Create workbooks for common investigation scenarios</t>
+  </si>
+  <si>
+    <t>Shared Workspace Used</t>
+  </si>
+  <si>
+    <t>Multiple teams sharing workspace causing access conflicts</t>
+  </si>
+  <si>
+    <t>Multiple workspaces</t>
+  </si>
+  <si>
+    <t>Create separate workspaces for different teams/environments</t>
+  </si>
+  <si>
+    <t>Schema Not Documented</t>
+  </si>
+  <si>
+    <t>Custom tables and fields not documented</t>
+  </si>
+  <si>
+    <t>Documentation process</t>
+  </si>
+  <si>
+    <t>Document all custom tables, fields, and their purposes</t>
+  </si>
+  <si>
+    <t>azurerm_security_center_workspace</t>
+  </si>
+  <si>
+    <t>Security Center Not Connected</t>
+  </si>
+  <si>
+    <t>Defender for Cloud not sending data to workspace</t>
+  </si>
+  <si>
+    <t>Connect Microsoft Defender for Cloud to workspace</t>
   </si>
 </sst>
 </file>
@@ -3576,7 +4889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4222,6 +5535,2404 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>

--- a/SR_Resource_type.xlsx
+++ b/SR_Resource_type.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4640" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4640" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Storage account" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Key vault" sheetId="7" r:id="rId5"/>
     <sheet name="Sql on VM" sheetId="8" r:id="rId6"/>
     <sheet name="Log analytics workspace" sheetId="9" r:id="rId7"/>
-    <sheet name="SQL Managed Instance" sheetId="6" r:id="rId8"/>
+    <sheet name="backup" sheetId="10" r:id="rId8"/>
+    <sheet name="SQL Managed Instance" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1227">
   <si>
     <t>Risk Description</t>
   </si>
@@ -2824,6 +2825,978 @@
   </si>
   <si>
     <t>Connect Microsoft Defender for Cloud to workspace</t>
+  </si>
+  <si>
+    <t>Azure Backup Vault Security Remediations</t>
+  </si>
+  <si>
+    <t>azurerm_data_protection_backup_vault</t>
+  </si>
+  <si>
+    <t>Storage Redundancy Not Configured</t>
+  </si>
+  <si>
+    <t>Backup data not protected against regional failures</t>
+  </si>
+  <si>
+    <t>datastore_type</t>
+  </si>
+  <si>
+    <t>Set to "VaultStore" with appropriate geo_redundancy</t>
+  </si>
+  <si>
+    <t>Geo-Redundancy Not Enabled</t>
+  </si>
+  <si>
+    <t>Backup vault not replicated to secondary region</t>
+  </si>
+  <si>
+    <t>redundancy</t>
+  </si>
+  <si>
+    <t>Set to "GeoRedundant" or "ZoneRedundant" for high availability</t>
+  </si>
+  <si>
+    <t>Uncontrolled access to backup vault and data</t>
+  </si>
+  <si>
+    <t>Assign appropriate roles: Backup Contributor, Backup Operator, Backup Reader</t>
+  </si>
+  <si>
+    <t>Cannot access Key Vault or other Azure resources securely</t>
+  </si>
+  <si>
+    <t>Backup data encrypted with Microsoft-managed keys only</t>
+  </si>
+  <si>
+    <t>Encryption settings via Policy</t>
+  </si>
+  <si>
+    <t>Configure CMK using Key Vault for backup encryption</t>
+  </si>
+  <si>
+    <t>No audit trail for backup operations</t>
+  </si>
+  <si>
+    <t>Enable diagnostic logs to Log Analytics workspace</t>
+  </si>
+  <si>
+    <t>Backup Alerts Not Configured</t>
+  </si>
+  <si>
+    <t>No notification for backup failures or security events</t>
+  </si>
+  <si>
+    <t>Configure alerts for backup failures, restore operations</t>
+  </si>
+  <si>
+    <t>Deleted backups can be permanently removed immediately</t>
+  </si>
+  <si>
+    <t>soft_delete</t>
+  </si>
+  <si>
+    <t>Enable soft delete with retention period (14-180 days)</t>
+  </si>
+  <si>
+    <t>Immutability Not Configured</t>
+  </si>
+  <si>
+    <t>Backup data can be modified or deleted by admins</t>
+  </si>
+  <si>
+    <t>Enable immutability via portal</t>
+  </si>
+  <si>
+    <t>Configure immutable vault to prevent backup deletion (WORM)</t>
+  </si>
+  <si>
+    <t>Backup vault can be accidentally deleted</t>
+  </si>
+  <si>
+    <t>Apply CanNotDelete lock to production backup vaults</t>
+  </si>
+  <si>
+    <t>azurerm_data_protection_backup_policy_disk</t>
+  </si>
+  <si>
+    <t>Backup Policy</t>
+  </si>
+  <si>
+    <t>Retention Policy Not Adequate</t>
+  </si>
+  <si>
+    <t>Insufficient backup retention for compliance needs</t>
+  </si>
+  <si>
+    <t>retention_duration</t>
+  </si>
+  <si>
+    <t>Configure retention (daily, weekly, monthly, yearly) based on RPO/RTO</t>
+  </si>
+  <si>
+    <t>azurerm_data_protection_backup_policy_blob_storage</t>
+  </si>
+  <si>
+    <t>Blob Backup Policy Not Configured</t>
+  </si>
+  <si>
+    <t>Azure Storage blobs not protected</t>
+  </si>
+  <si>
+    <t>Configure operational backup for blob storage (1-360 days)</t>
+  </si>
+  <si>
+    <t>azurerm_data_protection_backup_instance_disk</t>
+  </si>
+  <si>
+    <t>Disks Not Protected</t>
+  </si>
+  <si>
+    <t>Managed disks not included in backup policy</t>
+  </si>
+  <si>
+    <t>Associate managed disks with backup policy</t>
+  </si>
+  <si>
+    <t>Multi-User Authorization Not Enabled</t>
+  </si>
+  <si>
+    <t>Single admin can delete backups without approval</t>
+  </si>
+  <si>
+    <t>Enable MUA in vault settings</t>
+  </si>
+  <si>
+    <t>Enable multi-user authorization for critical operations</t>
+  </si>
+  <si>
+    <t>Backup vault accessible via public endpoint</t>
+  </si>
+  <si>
+    <t>Cross-Region Restore Not Tested</t>
+  </si>
+  <si>
+    <t>Unable to restore backups in secondary region</t>
+  </si>
+  <si>
+    <t>Test restore in secondary region</t>
+  </si>
+  <si>
+    <t>Perform quarterly cross-region restore tests</t>
+  </si>
+  <si>
+    <t>Backup Reports Not Configured</t>
+  </si>
+  <si>
+    <t>No visibility into backup health and compliance</t>
+  </si>
+  <si>
+    <t>Configure Backup Reports</t>
+  </si>
+  <si>
+    <t>Enable backup reports in Log Analytics workspace</t>
+  </si>
+  <si>
+    <t>Recovery Services Vault Security Remediations</t>
+  </si>
+  <si>
+    <t>Backup data not protected against failures</t>
+  </si>
+  <si>
+    <t>Set to "Standard" with appropriate storage_mode_type</t>
+  </si>
+  <si>
+    <t>Vault not replicated to secondary region for DR</t>
+  </si>
+  <si>
+    <t>storage_mode_type</t>
+  </si>
+  <si>
+    <t>Set to "GeoRedundant" (default) or "ZoneRedundant"</t>
+  </si>
+  <si>
+    <t>Cross-Region Restore Not Enabled</t>
+  </si>
+  <si>
+    <t>Cannot restore backups in secondary region</t>
+  </si>
+  <si>
+    <t>cross_region_restore_enabled</t>
+  </si>
+  <si>
+    <t>Set to true for geo-redundant vaults</t>
+  </si>
+  <si>
+    <t>Users have excessive permissions to backup data</t>
+  </si>
+  <si>
+    <t>Assign least privilege roles: Backup Contributor, Operator, Reader</t>
+  </si>
+  <si>
+    <t>Cannot access resources securely without keys</t>
+  </si>
+  <si>
+    <t>Customer-Managed Key Not Configured</t>
+  </si>
+  <si>
+    <t>Backup data encrypted with Microsoft-managed keys</t>
+  </si>
+  <si>
+    <t>encryption with infrastructure_encryption_enabled</t>
+  </si>
+  <si>
+    <t>Enable CMK and infrastructure encryption</t>
+  </si>
+  <si>
+    <t>Infrastructure Encryption Not Enabled</t>
+  </si>
+  <si>
+    <t>Single layer of encryption only</t>
+  </si>
+  <si>
+    <t>encryption.infrastructure_encryption_enabled</t>
+  </si>
+  <si>
+    <t>Set to true for double encryption</t>
+  </si>
+  <si>
+    <t>Deleted backups permanently removed immediately</t>
+  </si>
+  <si>
+    <t>soft_delete_enabled</t>
+  </si>
+  <si>
+    <t>Set to true (enabled by default, ensure not disabled)</t>
+  </si>
+  <si>
+    <t>Enhanced Soft Delete Not Enabled</t>
+  </si>
+  <si>
+    <t>Soft delete can be disabled, allowing permanent deletion</t>
+  </si>
+  <si>
+    <t>Enable via Azure Policy</t>
+  </si>
+  <si>
+    <t>Configure "always-on" soft delete via policy</t>
+  </si>
+  <si>
+    <t>No audit trail for backup and restore operations</t>
+  </si>
+  <si>
+    <t>Enable AzureBackupReport, CoreAzureBackup, AddonAzureBackupJobs logs</t>
+  </si>
+  <si>
+    <t>No notification for backup failures</t>
+  </si>
+  <si>
+    <t>Configure alerts for failed backups, long-running jobs</t>
+  </si>
+  <si>
+    <t>Immutability Not Enabled</t>
+  </si>
+  <si>
+    <t>Enable immutable vault</t>
+  </si>
+  <si>
+    <t>Lock vault to prevent deletion of recovery points (WORM)</t>
+  </si>
+  <si>
+    <t>Single user can perform critical operations</t>
+  </si>
+  <si>
+    <t>Require approval from resource guard for critical ops</t>
+  </si>
+  <si>
+    <t>Vault accessible from public internet</t>
+  </si>
+  <si>
+    <t>No private connectivity to vault</t>
+  </si>
+  <si>
+    <t>Configure private endpoint for backup and Site Recovery</t>
+  </si>
+  <si>
+    <t>Cannot track ownership and costs</t>
+  </si>
+  <si>
+    <t>Apply tags: Environment, Owner, CostCenter, BackupType</t>
+  </si>
+  <si>
+    <t>Vault can be accidentally deleted</t>
+  </si>
+  <si>
+    <t>Apply CanNotDelete lock to production vaults</t>
+  </si>
+  <si>
+    <t>VM Backup Policy Not Configured</t>
+  </si>
+  <si>
+    <t>VMs not protected by backup policy</t>
+  </si>
+  <si>
+    <t>Create backup policy with appropriate schedule and retention</t>
+  </si>
+  <si>
+    <t>Instant Restore Not Configured</t>
+  </si>
+  <si>
+    <t>Slow restore times from vault tier</t>
+  </si>
+  <si>
+    <t>instant_restore_retention_days</t>
+  </si>
+  <si>
+    <t>Set to 2-5 days for faster restores from snapshots</t>
+  </si>
+  <si>
+    <t>Retention Too Short</t>
+  </si>
+  <si>
+    <t>Backup retention doesn't meet compliance requirements</t>
+  </si>
+  <si>
+    <t>retention_daily, retention_weekly, etc.</t>
+  </si>
+  <si>
+    <t>Configure adequate retention (daily: 7-9999 days)</t>
+  </si>
+  <si>
+    <t>Time Zone Not Set</t>
+  </si>
+  <si>
+    <t>Backup schedule doesn't align with business hours</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>Set to appropriate timezone (e.g., "UTC", "Pacific Standard Time")</t>
+  </si>
+  <si>
+    <t>VMs Not Protected</t>
+  </si>
+  <si>
+    <t>Virtual machines not associated with backup policy</t>
+  </si>
+  <si>
+    <t>Associate all production VMs with backup policy</t>
+  </si>
+  <si>
+    <t>azurerm_backup_policy_file_share</t>
+  </si>
+  <si>
+    <t>File Share Backup Not Configured</t>
+  </si>
+  <si>
+    <t>Azure File Shares not protected</t>
+  </si>
+  <si>
+    <t>Configure backup policy for Azure Files</t>
+  </si>
+  <si>
+    <t>Site Recovery Not Configured</t>
+  </si>
+  <si>
+    <t>No VM replication for disaster recovery</t>
+  </si>
+  <si>
+    <t>Configure ASR replication to secondary region</t>
+  </si>
+  <si>
+    <t>azurerm_site_recovery_protection_container</t>
+  </si>
+  <si>
+    <t>Protection Container Not Created</t>
+  </si>
+  <si>
+    <t>Cannot manage replicated VMs</t>
+  </si>
+  <si>
+    <t>Create protection containers for source and target</t>
+  </si>
+  <si>
+    <t>azurerm_site_recovery_network_mapping</t>
+  </si>
+  <si>
+    <t>Network Mapping Not Configured</t>
+  </si>
+  <si>
+    <t>VMs won't have network connectivity after failover</t>
+  </si>
+  <si>
+    <t>Map source VNet to target VNet</t>
+  </si>
+  <si>
+    <t>azurerm_site_recovery_replication_policy</t>
+  </si>
+  <si>
+    <t>Replication Policy Not Optimized</t>
+  </si>
+  <si>
+    <t>Default RPO may not meet business requirements</t>
+  </si>
+  <si>
+    <t>recovery_point_retention_in_minutes</t>
+  </si>
+  <si>
+    <t>Set RPO (24-72 hours typical), app_consistent_snapshot_frequency</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Backup Restore Not Tested</t>
+  </si>
+  <si>
+    <t>Cannot verify backup integrity and restore process</t>
+  </si>
+  <si>
+    <t>Perform monthly test restores</t>
+  </si>
+  <si>
+    <t>DR Failover Not Tested</t>
+  </si>
+  <si>
+    <t>Disaster recovery plan not validated</t>
+  </si>
+  <si>
+    <t>Perform quarterly DR drills</t>
+  </si>
+  <si>
+    <t>Backup Center Not Configured</t>
+  </si>
+  <si>
+    <t>No centralized backup management</t>
+  </si>
+  <si>
+    <t>Configure via Azure Portal</t>
+  </si>
+  <si>
+    <t>Use Azure Backup Center for multi-vault management</t>
+  </si>
+  <si>
+    <t>Azure Policy Not Assigned</t>
+  </si>
+  <si>
+    <t>No automated compliance enforcement</t>
+  </si>
+  <si>
+    <t>Assign policies: Require backup, geo-redundancy, encryption</t>
+  </si>
+  <si>
+    <t>Backup Tiering Not Configured</t>
+  </si>
+  <si>
+    <t>All backups in vault tier increasing costs</t>
+  </si>
+  <si>
+    <t>Enable archive tier</t>
+  </si>
+  <si>
+    <t>Move infrequently accessed recovery points to archive tier</t>
+  </si>
+  <si>
+    <t>Ransomware Protection Not Enabled</t>
+  </si>
+  <si>
+    <t>Backups vulnerable to ransomware attacks</t>
+  </si>
+  <si>
+    <t>Enable security features</t>
+  </si>
+  <si>
+    <t>Enable soft delete, MUA, immutability, alerts on suspicious activity</t>
+  </si>
+  <si>
+    <t>Virtual Machine Scale Set (VMSS) Security Remediations</t>
+  </si>
+  <si>
+    <t>azurerm_linux_virtual_machine_scale_set</t>
+  </si>
+  <si>
+    <t>Data at rest vulnerable on VMSS instances</t>
+  </si>
+  <si>
+    <t>encryption_at_host_enabled</t>
+  </si>
+  <si>
+    <t>Set to true to encrypt all disks including temp disk</t>
+  </si>
+  <si>
+    <t>azurerm_windows_virtual_machine_scale_set</t>
+  </si>
+  <si>
+    <t>Secure Boot Not Enabled</t>
+  </si>
+  <si>
+    <t>Vulnerable to boot-level malware</t>
+  </si>
+  <si>
+    <t>secure_boot_enabled</t>
+  </si>
+  <si>
+    <t>Set to true (requires trusted launch)</t>
+  </si>
+  <si>
+    <t>vTPM Not Enabled</t>
+  </si>
+  <si>
+    <t>No hardware-based security attestation</t>
+  </si>
+  <si>
+    <t>vtpm_enabled</t>
+  </si>
+  <si>
+    <t>SSH Password Authentication Enabled</t>
+  </si>
+  <si>
+    <t>Vulnerable to brute force attacks</t>
+  </si>
+  <si>
+    <t>disable_password_authentication</t>
+  </si>
+  <si>
+    <t>Set to true, use SSH keys only</t>
+  </si>
+  <si>
+    <t>SSH Keys Not Configured</t>
+  </si>
+  <si>
+    <t>Weak authentication method</t>
+  </si>
+  <si>
+    <t>admin_ssh_key</t>
+  </si>
+  <si>
+    <t>Configure SSH public keys for all instances</t>
+  </si>
+  <si>
+    <t>Automatic OS Updates Not Enabled</t>
+  </si>
+  <si>
+    <t>Missing critical security patches</t>
+  </si>
+  <si>
+    <t>enable_automatic_updates</t>
+  </si>
+  <si>
+    <t>Set to true for Windows VMSS</t>
+  </si>
+  <si>
+    <t>Automatic Patching Not Configured</t>
+  </si>
+  <si>
+    <t>Instances running with vulnerabilities</t>
+  </si>
+  <si>
+    <t>automatic_os_upgrade_policy</t>
+  </si>
+  <si>
+    <t>Enable with mode = "AutomaticByPlatform"</t>
+  </si>
+  <si>
+    <t>Automatic OS Upgrade Not Enabled</t>
+  </si>
+  <si>
+    <t>Manual patching increases security risk</t>
+  </si>
+  <si>
+    <t>Cannot securely access Azure resources</t>
+  </si>
+  <si>
+    <t>Availability Zones Not Configured</t>
+  </si>
+  <si>
+    <t>Single zone failure affects all instances</t>
+  </si>
+  <si>
+    <t>zones</t>
+  </si>
+  <si>
+    <t>Deploy across multiple zones: ["1", "2", "3"]</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Cannot handle load changes automatically</t>
+  </si>
+  <si>
+    <t>azurerm_monitor_autoscale_setting</t>
+  </si>
+  <si>
+    <t>Configure autoscale rules based on metrics</t>
+  </si>
+  <si>
+    <t>Scale-In Policy Not Optimized</t>
+  </si>
+  <si>
+    <t>Removing wrong instances during scale-in</t>
+  </si>
+  <si>
+    <t>scale_in_policy</t>
+  </si>
+  <si>
+    <t>Set to "OldestVM" or "Default" based on needs</t>
+  </si>
+  <si>
+    <t>Min/Max Instances Not Set Properly</t>
+  </si>
+  <si>
+    <t>Too few instances for HA or too many causing costs</t>
+  </si>
+  <si>
+    <t>capacity (minimum, maximum, default)</t>
+  </si>
+  <si>
+    <t>Set min &gt;= 2 for HA, max based on load testing</t>
+  </si>
+  <si>
+    <t>NSG Not Configured</t>
+  </si>
+  <si>
+    <t>No network-level security controls</t>
+  </si>
+  <si>
+    <t>Configure NSG with restrictive rules</t>
+  </si>
+  <si>
+    <t>Public IP on Instances</t>
+  </si>
+  <si>
+    <t>VMSS instances directly exposed to internet</t>
+  </si>
+  <si>
+    <t>Configure network_interface without public_ip</t>
+  </si>
+  <si>
+    <t>Do not assign public IPs to individual instances</t>
+  </si>
+  <si>
+    <t>No traffic distribution or health monitoring</t>
+  </si>
+  <si>
+    <t>Configure with load_balancer_backend_address_pool_ids</t>
+  </si>
+  <si>
+    <t>Associate VMSS with Azure Load Balancer</t>
+  </si>
+  <si>
+    <t>azurerm_lb</t>
+  </si>
+  <si>
+    <t>Health Probes Not Configured</t>
+  </si>
+  <si>
+    <t>Cannot detect unhealthy instances</t>
+  </si>
+  <si>
+    <t>azurerm_lb_probe</t>
+  </si>
+  <si>
+    <t>Configure health probes for all backend services</t>
+  </si>
+  <si>
+    <t>Backend Pool Not Configured</t>
+  </si>
+  <si>
+    <t>Load balancer not distributing traffic</t>
+  </si>
+  <si>
+    <t>azurerm_lb_backend_address_pool</t>
+  </si>
+  <si>
+    <t>Create backend pool and associate with VMSS</t>
+  </si>
+  <si>
+    <t>network_interface.enable_accelerated_networking</t>
+  </si>
+  <si>
+    <t>Set to true (if VM size supports it)</t>
+  </si>
+  <si>
+    <t>Boot Diagnostics Not Enabled</t>
+  </si>
+  <si>
+    <t>Cannot diagnose boot failures</t>
+  </si>
+  <si>
+    <t>boot_diagnostics</t>
+  </si>
+  <si>
+    <t>Enable boot diagnostics with storage account</t>
+  </si>
+  <si>
+    <t>Application Health Extension Not Installed</t>
+  </si>
+  <si>
+    <t>Cannot detect unhealthy application state</t>
+  </si>
+  <si>
+    <t>extension with name = "HealthExtension"</t>
+  </si>
+  <si>
+    <t>Install application health extension</t>
+  </si>
+  <si>
+    <t>Azure Monitor Agent Not Installed</t>
+  </si>
+  <si>
+    <t>No centralized monitoring and log collection</t>
+  </si>
+  <si>
+    <t>extension with name = "AzureMonitorLinuxAgent"</t>
+  </si>
+  <si>
+    <t>Install Azure Monitor Agent extension</t>
+  </si>
+  <si>
+    <t>extension with name = "AzureMonitorWindowsAgent"</t>
+  </si>
+  <si>
+    <t>Metric Alerts Not Configured</t>
+  </si>
+  <si>
+    <t>No alerting on performance or health issues</t>
+  </si>
+  <si>
+    <t>Configure alerts for CPU, memory, instance health</t>
+  </si>
+  <si>
+    <t>No audit trail for VMSS operations</t>
+  </si>
+  <si>
+    <t>Enable diagnostic logs to Log Analytics</t>
+  </si>
+  <si>
+    <t>Premium SSD Not Used</t>
+  </si>
+  <si>
+    <t>Lower IOPS and reliability</t>
+  </si>
+  <si>
+    <t>storage_account_type in os_disk</t>
+  </si>
+  <si>
+    <t>Use "Premium_LRS" or "Premium_ZRS" for production</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Custom Image Not Used</t>
+  </si>
+  <si>
+    <t>Deploying from marketplace without hardening</t>
+  </si>
+  <si>
+    <t>source_image_id</t>
+  </si>
+  <si>
+    <t>Use custom hardened image from Shared Image Gallery</t>
+  </si>
+  <si>
+    <t>azurerm_shared_image</t>
+  </si>
+  <si>
+    <t>Image Management</t>
+  </si>
+  <si>
+    <t>Shared Image Gallery Not Configured</t>
+  </si>
+  <si>
+    <t>No centralized secure image management</t>
+  </si>
+  <si>
+    <t>azurerm_shared_image_gallery</t>
+  </si>
+  <si>
+    <t>Create Shared Image Gallery for organization images</t>
+  </si>
+  <si>
+    <t>Overprovision Enabled</t>
+  </si>
+  <si>
+    <t>Extra instances created then deleted, wasting resources</t>
+  </si>
+  <si>
+    <t>overprovision</t>
+  </si>
+  <si>
+    <t>Set to false to disable overprovisioning</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Upgrade Policy Not Configured</t>
+  </si>
+  <si>
+    <t>No controlled update mechanism for instances</t>
+  </si>
+  <si>
+    <t>upgrade_mode</t>
+  </si>
+  <si>
+    <t>Set to "Rolling" or "Automatic" with health probe</t>
+  </si>
+  <si>
+    <t>Rolling Upgrade Not Configured</t>
+  </si>
+  <si>
+    <t>All instances updated simultaneously causing downtime</t>
+  </si>
+  <si>
+    <t>rolling_upgrade_policy</t>
+  </si>
+  <si>
+    <t>Configure max_batch_instance_percent, max_unhealthy_instance_percent</t>
+  </si>
+  <si>
+    <t>Azure Hybrid Benefit Not Configured</t>
+  </si>
+  <si>
+    <t>Unnecessary licensing costs for RHEL/SLES</t>
+  </si>
+  <si>
+    <t>license_type</t>
+  </si>
+  <si>
+    <t>Set to "RHEL_BYOS" or "SLES_BYOS" if applicable</t>
+  </si>
+  <si>
+    <t>Unnecessary Windows licensing costs</t>
+  </si>
+  <si>
+    <t>Set to "Windows_Server" if you have licenses with SA</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Not Installed</t>
+  </si>
+  <si>
+    <t>No endpoint threat detection</t>
+  </si>
+  <si>
+    <t>extension with name = "MDE.Linux"</t>
+  </si>
+  <si>
+    <t>Install Microsoft Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>extension with name = "MDE.Windows"</t>
+  </si>
+  <si>
+    <t>Defender for Servers Not Enabled</t>
+  </si>
+  <si>
+    <t>No advanced threat protection for VMSS</t>
+  </si>
+  <si>
+    <t>resource_type = "VirtualMachines"</t>
+  </si>
+  <si>
+    <t>Enable Microsoft Defender for Servers Plan 2</t>
+  </si>
+  <si>
+    <t>Azure Policy Guest Config Not Installed</t>
+  </si>
+  <si>
+    <t>No in-guest compliance monitoring</t>
+  </si>
+  <si>
+    <t>extension with name = "AzurePolicyforLinux"</t>
+  </si>
+  <si>
+    <t>Install Azure Policy Guest Configuration</t>
+  </si>
+  <si>
+    <t>extension with name = "AzurePolicyforWindows"</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Instance Repair Not Enabled</t>
+  </si>
+  <si>
+    <t>Failed instances not automatically replaced</t>
+  </si>
+  <si>
+    <t>automatic_instance_repair</t>
+  </si>
+  <si>
+    <t>Enable with grace_period (30-90 minutes)</t>
+  </si>
+  <si>
+    <t>Scale-In Protection Not Used</t>
+  </si>
+  <si>
+    <t>Critical instances removed during scale-in</t>
+  </si>
+  <si>
+    <t>Enable per-instance protection</t>
+  </si>
+  <si>
+    <t>Protect specific instances from scale-in</t>
+  </si>
+  <si>
+    <t>Cannot track costs or ownership</t>
+  </si>
+  <si>
+    <t>Apply tags: Environment, Application, Owner, CostCenter</t>
+  </si>
+  <si>
+    <t>Proximity Placement Group Not Used</t>
+  </si>
+  <si>
+    <t>Higher latency between related VMSS instances</t>
+  </si>
+  <si>
+    <t>proximity_placement_group_id</t>
+  </si>
+  <si>
+    <t>Configure PPG for low-latency scenarios</t>
+  </si>
+  <si>
+    <t>Application Security Group Not Used</t>
+  </si>
+  <si>
+    <t>Cannot apply micro-segmentation</t>
+  </si>
+  <si>
+    <t>application_security_group_ids</t>
+  </si>
+  <si>
+    <t>Associate with ASG for application-based security</t>
+  </si>
+  <si>
+    <t>Custom Script Extension Not Used</t>
+  </si>
+  <si>
+    <t>No automated security hardening at deployment</t>
+  </si>
+  <si>
+    <t>extension with name = "CustomScript"</t>
+  </si>
+  <si>
+    <t>Use custom script for security baseline</t>
+  </si>
+  <si>
+    <t>extension with name = "CustomScriptExtension"</t>
+  </si>
+  <si>
+    <t>VMSS Instances Not Backed Up</t>
+  </si>
+  <si>
+    <t>No backup of VMSS instances</t>
+  </si>
+  <si>
+    <t>Configure backup for VMSS instances (if needed)</t>
+  </si>
+  <si>
+    <t>Configure backup for VMSS instances (if stateful)</t>
   </si>
 </sst>
 </file>
@@ -6927,7 +7900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -7933,6 +8906,2496 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A105" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A106" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A113" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A125" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
